--- a/target/test-classes/testData/RegistrationTests.xlsx
+++ b/target/test-classes/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A71A0-3F54-9D49-AA37-E41B0D45A310}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E38BC-A1B7-D840-9060-1305BD0ABD27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>lauren.weiniger.19847@yopmail.com</t>
-  </si>
-  <si>
-    <t>2111111113</t>
+    <t>2111111115</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.1849@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -633,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>

--- a/target/test-classes/testData/RegistrationTests.xlsx
+++ b/target/test-classes/testData/RegistrationTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E38BC-A1B7-D840-9060-1305BD0ABD27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD71D83A-A912-6F47-AABD-FEE1FFCAACAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>2111111115</t>
-  </si>
-  <si>
-    <t>lauren.weiniger.1849@yopmail.com</t>
+    <t>2111111118</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.1852@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/target/test-classes/testData/RegistrationTests.xlsx
+++ b/target/test-classes/testData/RegistrationTests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD71D83A-A912-6F47-AABD-FEE1FFCAACAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247C47A-709C-3241-8082-278C2B7FC143}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{5AD99FE6-D6CF-374A-A616-21B8609C3A15}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Weiniger</t>
   </si>
   <si>
-    <t>2111111118</t>
-  </si>
-  <si>
-    <t>lauren.weiniger.1852@yopmail.com</t>
+    <t>lauren.weiniger.19853@yopmail.com</t>
+  </si>
+  <si>
+    <t>2111111127</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -633,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>
@@ -678,7 +678,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{3E0540D0-7399-EA44-938F-197CAF0569D8}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{0B772FF9-B40A-884C-AF34-560FF84FB0BB}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{F9E6063B-CF68-0947-BBF7-0B874B842D9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
